--- a/Trucs_utiles/Gantt_2019_mi-projet.xlsx
+++ b/Trucs_utiles/Gantt_2019_mi-projet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{B9DEBF91-5E6D-7E4D-84CD-E49B0909C92C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{E8D2295F-031B-B548-96C1-1AE5495A3F92}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1760" windowWidth="24400" windowHeight="10720" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1280" yWindow="580" windowWidth="24400" windowHeight="10720" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>Créez un diagramme de Gantt dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -76,12 +76,6 @@
   <si>
     <t>Cette ligne marque la fin des données de jalons du diagramme de Gantt. N’ENTREZ RIEN dans cette ligne. 
 Pour ajouter des éléments, insérez des lignes au-dessus de celle-ci.</t>
-  </si>
-  <si>
-    <t>Nom de la société</t>
-  </si>
-  <si>
-    <t>Responsable du projet</t>
   </si>
   <si>
     <t>Description du jalon</t>
@@ -173,7 +167,10 @@
     <t>Présentation projet</t>
   </si>
   <si>
-    <t>Diagramme de Gantt Projet Robot</t>
+    <t>Projet SE3A : Amélioration du Robot MT</t>
+  </si>
+  <si>
+    <t>Polytech Marseille</t>
   </si>
 </sst>
 </file>
@@ -1523,8 +1520,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70B51325-D3C3-4A05-BAB3-7A7400707A14}" name="Jalons" displayName="Jalons" ref="B6:F17" totalsRowShown="0">
-  <autoFilter ref="B6:F17" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70B51325-D3C3-4A05-BAB3-7A7400707A14}" name="Jalons" displayName="Jalons" ref="B6:F18" totalsRowShown="0">
+  <autoFilter ref="B6:F18" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1813,10 +1810,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BK20"/>
+  <dimension ref="A1:BK21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B9" zoomScale="66" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A4" zoomScale="66" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1"/>
@@ -1837,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1"/>
       <c r="E1"/>
@@ -1850,10 +1847,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" s="55"/>
       <c r="E2" s="56">
@@ -1872,11 +1869,9 @@
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>10</v>
-      </c>
+      <c r="B3" s="16"/>
       <c r="C3" s="54" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" s="55"/>
       <c r="E3" s="40">
@@ -1894,7 +1889,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="59"/>
       <c r="E4" s="41">
@@ -2221,19 +2216,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="F6" s="23" t="s">
         <v>17</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>19</v>
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="43" t="str">
@@ -2530,10 +2525,10 @@
     <row r="8" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A8" s="13"/>
       <c r="B8" s="60" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" s="24">
         <v>0.7</v>
@@ -2772,263 +2767,85 @@
     </row>
     <row r="9" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A9" s="13"/>
-      <c r="B9" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="24">
-        <v>1</v>
-      </c>
-      <c r="E9" s="25">
-        <v>43581</v>
-      </c>
-      <c r="F9" s="49">
-        <v>5</v>
-      </c>
+      <c r="B9" s="60"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="49"/>
       <c r="G9" s="20"/>
-      <c r="H9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="I9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="J9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="K9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="L9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="M9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="N9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="O9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="P9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Q9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="R9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="S9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="T9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="U9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="V9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="W9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="X9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Y9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Z9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AA9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AB9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AC9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AD9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AE9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AF9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AG9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AH9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AI9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AJ9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AK9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AL9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AM9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AN9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AO9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AP9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AQ9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AR9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AS9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AT9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AU9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AV9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AW9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AX9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AY9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AZ9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BA9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BB9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BC9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BD9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BE9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BF9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BG9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BH9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BI9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BJ9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BK9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="29"/>
+      <c r="AG9" s="29"/>
+      <c r="AH9" s="29"/>
+      <c r="AI9" s="29"/>
+      <c r="AJ9" s="29"/>
+      <c r="AK9" s="29"/>
+      <c r="AL9" s="29"/>
+      <c r="AM9" s="29"/>
+      <c r="AN9" s="29"/>
+      <c r="AO9" s="29"/>
+      <c r="AP9" s="29"/>
+      <c r="AQ9" s="29"/>
+      <c r="AR9" s="29"/>
+      <c r="AS9" s="29"/>
+      <c r="AT9" s="29"/>
+      <c r="AU9" s="29"/>
+      <c r="AV9" s="29"/>
+      <c r="AW9" s="29"/>
+      <c r="AX9" s="29"/>
+      <c r="AY9" s="29"/>
+      <c r="AZ9" s="29"/>
+      <c r="BA9" s="29"/>
+      <c r="BB9" s="29"/>
+      <c r="BC9" s="29"/>
+      <c r="BD9" s="29"/>
+      <c r="BE9" s="29"/>
+      <c r="BF9" s="29"/>
+      <c r="BG9" s="29"/>
+      <c r="BH9" s="29"/>
+      <c r="BI9" s="29"/>
+      <c r="BJ9" s="29"/>
+      <c r="BK9" s="29"/>
     </row>
     <row r="10" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="31" t="s">
-        <v>26</v>
+      <c r="A10" s="13"/>
+      <c r="B10" s="33" t="s">
+        <v>23</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D10" s="24">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="E10" s="25">
         <v>43581</v>
       </c>
       <c r="F10" s="49">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="29" t="str">
@@ -3259,10 +3076,10 @@
     <row r="11" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A11" s="12"/>
       <c r="B11" s="31" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D11" s="24">
         <v>0.85</v>
@@ -3502,16 +3319,16 @@
     <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A12" s="12"/>
       <c r="B12" s="31" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D12" s="24">
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="E12" s="25">
-        <v>43588</v>
+        <v>43581</v>
       </c>
       <c r="F12" s="49">
         <v>20</v>
@@ -3745,17 +3562,19 @@
     <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A13" s="12"/>
       <c r="B13" s="31" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="24"/>
+        <v>33</v>
+      </c>
+      <c r="D13" s="24">
+        <v>0.6</v>
+      </c>
       <c r="E13" s="25">
-        <v>43600</v>
+        <v>43588</v>
       </c>
       <c r="F13" s="49">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="29" t="str">
@@ -3984,21 +3803,19 @@
       </c>
     </row>
     <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1">
-      <c r="A14" s="12" t="s">
-        <v>30</v>
-      </c>
+      <c r="A14" s="12"/>
       <c r="B14" s="31" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" s="24"/>
       <c r="E14" s="25">
         <v>43600</v>
       </c>
       <c r="F14" s="49">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="29" t="str">
@@ -4227,19 +4044,21 @@
       </c>
     </row>
     <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1">
-      <c r="A15" s="12"/>
+      <c r="A15" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="B15" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="27" t="s">
         <v>31</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>24</v>
       </c>
       <c r="D15" s="24"/>
       <c r="E15" s="25">
-        <v>43606</v>
+        <v>43600</v>
       </c>
       <c r="F15" s="49">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="29" t="str">
@@ -4470,17 +4289,17 @@
     <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A16" s="12"/>
       <c r="B16" s="31" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="25">
-        <v>43613</v>
+        <v>43606</v>
       </c>
       <c r="F16" s="49">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="29" t="str">
@@ -4667,9 +4486,9 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BB16" s="29">
+      <c r="BB16" s="29" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="BC16" s="29" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
@@ -4709,316 +4528,557 @@
       </c>
     </row>
     <row r="17" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1">
-      <c r="A17" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="27"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>22</v>
+      </c>
       <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="49"/>
+      <c r="E17" s="25">
+        <v>43613</v>
+      </c>
+      <c r="F17" s="49">
+        <v>1</v>
+      </c>
       <c r="G17" s="20"/>
       <c r="H17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="I17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="J17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="K17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="L17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="M17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="N17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="O17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="P17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Q17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="R17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="S17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="T17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="U17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="V17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="W17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="X17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Y17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Z17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AA17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AB17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AC17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AD17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AE17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AF17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AG17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AH17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AI17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AJ17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AK17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AL17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AM17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AN17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AO17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AP17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AQ17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AR17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AS17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AT17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AU17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AV17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AW17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AX17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AY17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AZ17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BA17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BB17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BB17" s="29">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v>1</v>
       </c>
       <c r="BC17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BD17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BE17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BF17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BG17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BH17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BI17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BJ17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BK17" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A18" s="13" t="s">
+    <row r="18" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="I18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="J18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="K18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="L18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="N18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="O18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="P18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Q18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="R18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="S18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="T18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="U18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="V18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="W18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="X18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Y18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Z18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AA18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AB18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AC18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AD18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AE18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AF18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AG18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AH18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AI18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AJ18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AK18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AL18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AM18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AN18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AO18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AP18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AQ18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BA18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BB18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BC18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BD18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BE18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BF18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BG18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BH18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BI18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BJ18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BK18" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A19" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="28"/>
-      <c r="AD18" s="28"/>
-      <c r="AE18" s="28"/>
-      <c r="AF18" s="28"/>
-      <c r="AG18" s="28"/>
-      <c r="AH18" s="28"/>
-      <c r="AI18" s="28"/>
-      <c r="AJ18" s="28"/>
-      <c r="AK18" s="28"/>
-      <c r="AL18" s="28"/>
-      <c r="AM18" s="28"/>
-      <c r="AN18" s="28"/>
-      <c r="AO18" s="28"/>
-      <c r="AP18" s="28"/>
-      <c r="AQ18" s="28"/>
-      <c r="AR18" s="28"/>
-      <c r="AS18" s="28"/>
-      <c r="AT18" s="28"/>
-      <c r="AU18" s="28"/>
-      <c r="AV18" s="28"/>
-      <c r="AW18" s="28"/>
-      <c r="AX18" s="28"/>
-      <c r="AY18" s="28"/>
-      <c r="AZ18" s="28"/>
-      <c r="BA18" s="28"/>
-      <c r="BB18" s="28"/>
-      <c r="BC18" s="28"/>
-      <c r="BD18" s="28"/>
-      <c r="BE18" s="28"/>
-      <c r="BF18" s="28"/>
-      <c r="BG18" s="28"/>
-      <c r="BH18" s="28"/>
-      <c r="BI18" s="28"/>
-      <c r="BJ18" s="28"/>
-      <c r="BK18" s="28"/>
-    </row>
-    <row r="19" spans="1:63" ht="30" customHeight="1">
-      <c r="C19" s="5"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="4"/>
+      <c r="B19" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="28"/>
+      <c r="AD19" s="28"/>
+      <c r="AE19" s="28"/>
+      <c r="AF19" s="28"/>
+      <c r="AG19" s="28"/>
+      <c r="AH19" s="28"/>
+      <c r="AI19" s="28"/>
+      <c r="AJ19" s="28"/>
+      <c r="AK19" s="28"/>
+      <c r="AL19" s="28"/>
+      <c r="AM19" s="28"/>
+      <c r="AN19" s="28"/>
+      <c r="AO19" s="28"/>
+      <c r="AP19" s="28"/>
+      <c r="AQ19" s="28"/>
+      <c r="AR19" s="28"/>
+      <c r="AS19" s="28"/>
+      <c r="AT19" s="28"/>
+      <c r="AU19" s="28"/>
+      <c r="AV19" s="28"/>
+      <c r="AW19" s="28"/>
+      <c r="AX19" s="28"/>
+      <c r="AY19" s="28"/>
+      <c r="AZ19" s="28"/>
+      <c r="BA19" s="28"/>
+      <c r="BB19" s="28"/>
+      <c r="BC19" s="28"/>
+      <c r="BD19" s="28"/>
+      <c r="BE19" s="28"/>
+      <c r="BF19" s="28"/>
+      <c r="BG19" s="28"/>
+      <c r="BH19" s="28"/>
+      <c r="BI19" s="28"/>
+      <c r="BJ19" s="28"/>
+      <c r="BK19" s="28"/>
     </row>
     <row r="20" spans="1:63" ht="30" customHeight="1">
-      <c r="C20" s="6"/>
+      <c r="C20" s="5"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:63" ht="30" customHeight="1">
+      <c r="C21" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5027,7 +5087,7 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="C4:D4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D6:D17">
+  <conditionalFormatting sqref="D6:D18">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5041,12 +5101,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:BK17">
+  <conditionalFormatting sqref="H8:BK18">
     <cfRule type="expression" dxfId="2" priority="78">
       <formula>H$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:BK17">
+  <conditionalFormatting sqref="H7:BK18">
     <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
       <formula>AND(H$5&gt;=$E7+1,H$5&lt;=$E7+$F7-2)</formula>
     </cfRule>
@@ -5116,7 +5176,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D6:D17</xm:sqref>
+          <xm:sqref>D6:D18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="2" id="{6C427F2E-2EF5-46B4-BFA6-7C68148277AC}">
@@ -5154,7 +5214,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H7:BK17</xm:sqref>
+          <xm:sqref>H7:BK18</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5176,22 +5236,22 @@
   <sheetData>
     <row r="1" spans="1:1" s="9" customFormat="1" ht="50" customHeight="1">
       <c r="A1" s="34" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="160">
       <c r="A2" s="35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="26.25" customHeight="1">
       <c r="A3" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:1" s="10" customFormat="1" ht="210.75" customHeight="1">
       <c r="A4" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
